--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pthlh-Pth1r.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2756003333333333</v>
+        <v>0.5872273333333333</v>
       </c>
       <c r="H2">
-        <v>0.8268009999999999</v>
+        <v>1.761682</v>
       </c>
       <c r="I2">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="J2">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9990806666666666</v>
+        <v>0.902915</v>
       </c>
       <c r="N2">
-        <v>2.997242</v>
+        <v>2.708745</v>
       </c>
       <c r="O2">
-        <v>0.1356546064507813</v>
+        <v>0.1151652421792931</v>
       </c>
       <c r="P2">
-        <v>0.1356546064507813</v>
+        <v>0.1151652421792931</v>
       </c>
       <c r="Q2">
-        <v>0.2753469647602221</v>
+        <v>0.5302163676766667</v>
       </c>
       <c r="R2">
-        <v>2.478122682842</v>
+        <v>4.77194730909</v>
       </c>
       <c r="S2">
-        <v>0.004776213346181504</v>
+        <v>0.008308883294042358</v>
       </c>
       <c r="T2">
-        <v>0.004776213346181506</v>
+        <v>0.008308883294042358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2756003333333333</v>
+        <v>0.5872273333333333</v>
       </c>
       <c r="H3">
-        <v>0.8268009999999999</v>
+        <v>1.761682</v>
       </c>
       <c r="I3">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="J3">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.804276</v>
       </c>
       <c r="O3">
-        <v>0.5795191117925025</v>
+        <v>0.5443877317615758</v>
       </c>
       <c r="P3">
-        <v>0.5795191117925026</v>
+        <v>0.5443877317615758</v>
       </c>
       <c r="Q3">
-        <v>1.176287577897333</v>
+        <v>2.506340283581333</v>
       </c>
       <c r="R3">
-        <v>10.586588201076</v>
+        <v>22.557062552232</v>
       </c>
       <c r="S3">
-        <v>0.02040407612044391</v>
+        <v>0.03927620907420502</v>
       </c>
       <c r="T3">
-        <v>0.02040407612044391</v>
+        <v>0.03927620907420502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2756003333333333</v>
+        <v>0.5872273333333333</v>
       </c>
       <c r="H4">
-        <v>0.8268009999999999</v>
+        <v>1.761682</v>
       </c>
       <c r="I4">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="J4">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.779124</v>
+        <v>2.440679</v>
       </c>
       <c r="N4">
-        <v>5.337372</v>
+        <v>7.322037</v>
       </c>
       <c r="O4">
-        <v>0.2415684479736436</v>
+        <v>0.311304373187858</v>
       </c>
       <c r="P4">
-        <v>0.2415684479736436</v>
+        <v>0.311304373187858</v>
       </c>
       <c r="Q4">
-        <v>0.4903271674413333</v>
+        <v>1.433233420692666</v>
       </c>
       <c r="R4">
-        <v>4.412944506972</v>
+        <v>12.899100786234</v>
       </c>
       <c r="S4">
-        <v>0.00850529499451011</v>
+        <v>0.02245982951797235</v>
       </c>
       <c r="T4">
-        <v>0.008505294994510111</v>
+        <v>0.02245982951797235</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2756003333333333</v>
+        <v>0.5872273333333333</v>
       </c>
       <c r="H5">
-        <v>0.8268009999999999</v>
+        <v>1.761682</v>
       </c>
       <c r="I5">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="J5">
-        <v>0.03520863368480177</v>
+        <v>0.07214749117712801</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.318589</v>
+        <v>0.2284833333333333</v>
       </c>
       <c r="N5">
-        <v>0.955767</v>
+        <v>0.68545</v>
       </c>
       <c r="O5">
-        <v>0.04325783378307253</v>
+        <v>0.02914265287127302</v>
       </c>
       <c r="P5">
-        <v>0.04325783378307253</v>
+        <v>0.02914265287127302</v>
       </c>
       <c r="Q5">
-        <v>0.08780323459633332</v>
+        <v>0.1341716585444445</v>
       </c>
       <c r="R5">
-        <v>0.7902291113669999</v>
+        <v>1.2075449269</v>
       </c>
       <c r="S5">
-        <v>0.001523049223666243</v>
+        <v>0.002102569290908274</v>
       </c>
       <c r="T5">
-        <v>0.001523049223666244</v>
+        <v>0.002102569290908275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>22.656104</v>
       </c>
       <c r="I6">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="J6">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9990806666666666</v>
+        <v>0.902915</v>
       </c>
       <c r="N6">
-        <v>2.997242</v>
+        <v>2.708745</v>
       </c>
       <c r="O6">
-        <v>0.1356546064507813</v>
+        <v>0.1151652421792931</v>
       </c>
       <c r="P6">
-        <v>0.1356546064507813</v>
+        <v>0.1151652421792931</v>
       </c>
       <c r="Q6">
-        <v>7.545091829463111</v>
+        <v>6.818845381053333</v>
       </c>
       <c r="R6">
-        <v>67.90582646516799</v>
+        <v>61.36960842948</v>
       </c>
       <c r="S6">
-        <v>0.1308783931045998</v>
+        <v>0.1068563588852507</v>
       </c>
       <c r="T6">
-        <v>0.1308783931045998</v>
+        <v>0.1068563588852507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>22.656104</v>
       </c>
       <c r="I7">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="J7">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>12.804276</v>
       </c>
       <c r="O7">
-        <v>0.5795191117925025</v>
+        <v>0.5443877317615758</v>
       </c>
       <c r="P7">
-        <v>0.5795191117925026</v>
+        <v>0.5443877317615758</v>
       </c>
       <c r="Q7">
         <v>32.23277874452267</v>
@@ -883,10 +883,10 @@
         <v>290.095008700704</v>
       </c>
       <c r="S7">
-        <v>0.5591150356720586</v>
+        <v>0.5051115226873708</v>
       </c>
       <c r="T7">
-        <v>0.5591150356720587</v>
+        <v>0.5051115226873708</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>22.656104</v>
       </c>
       <c r="I8">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="J8">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.779124</v>
+        <v>2.440679</v>
       </c>
       <c r="N8">
-        <v>5.337372</v>
+        <v>7.322037</v>
       </c>
       <c r="O8">
-        <v>0.2415684479736436</v>
+        <v>0.311304373187858</v>
       </c>
       <c r="P8">
-        <v>0.2415684479736436</v>
+        <v>0.311304373187858</v>
       </c>
       <c r="Q8">
-        <v>13.43600612429867</v>
+        <v>18.43209241820533</v>
       </c>
       <c r="R8">
-        <v>120.924055118688</v>
+        <v>165.888831763848</v>
       </c>
       <c r="S8">
-        <v>0.2330631529791335</v>
+        <v>0.2888445436698856</v>
       </c>
       <c r="T8">
-        <v>0.2330631529791335</v>
+        <v>0.2888445436698857</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>22.656104</v>
       </c>
       <c r="I9">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="J9">
-        <v>0.9647913663151982</v>
+        <v>0.927852508822872</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.318589</v>
+        <v>0.2284833333333333</v>
       </c>
       <c r="N9">
-        <v>0.955767</v>
+        <v>0.68545</v>
       </c>
       <c r="O9">
-        <v>0.04325783378307253</v>
+        <v>0.02914265287127302</v>
       </c>
       <c r="P9">
-        <v>0.04325783378307253</v>
+        <v>0.02914265287127302</v>
       </c>
       <c r="Q9">
-        <v>2.405995172418667</v>
+        <v>1.725514054088889</v>
       </c>
       <c r="R9">
-        <v>21.653956551768</v>
+        <v>15.5296264868</v>
       </c>
       <c r="S9">
-        <v>0.04173478455940628</v>
+        <v>0.02704008358036474</v>
       </c>
       <c r="T9">
-        <v>0.04173478455940629</v>
+        <v>0.02704008358036475</v>
       </c>
     </row>
   </sheetData>
